--- a/Reference/仕様書.xlsx
+++ b/Reference/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aceca\Documents\Visual Studio 2015\Projects\MoneyManagementSystem\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6BEE5A7-F997-4A23-A30A-57B5C64CAD40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC84C76-8CC7-4266-8C67-49A843D2DC44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26130" yWindow="2250" windowWidth="21600" windowHeight="11325" xr2:uid="{07945C26-3F5A-41C2-B3CA-D8A94398EC0E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12312" xr2:uid="{07945C26-3F5A-41C2-B3CA-D8A94398EC0E}"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -276,6 +276,20 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -643,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F02F7C-3C05-4BF7-A127-632EAB947DBB}">
   <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -677,6 +691,9 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4">
@@ -716,10 +733,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
@@ -727,10 +747,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
@@ -738,10 +761,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
@@ -749,10 +775,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
@@ -760,36 +786,66 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>10</v>
       </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>11</v>
       </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>12</v>
       </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>13</v>
       </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>14</v>
       </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17">
@@ -824,6 +880,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -831,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA1401A-F942-4B65-8153-CDAAE6DDE3CE}">
   <dimension ref="B2:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
